--- a/biology/Botanique/Hyacinthus/Hyacinthus.xlsx
+++ b/biology/Botanique/Hyacinthus/Hyacinthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacinthes
 Hyacinthus est un genre de plantes bulbeuses, anciennement classées dans la famille des Liliaceae et qui désigne les véritables espèces de jacinthes (pour les distinguer des espèces de scilles). Ce genre fait désormais partie de la famille des Asparagaceae. Le nom vient de la mythologie grecque : Hyacinthe fut tué accidentellement par le dieu Apollon, celui-ci transforma alors les gouttes de sang en fleurs.
@@ -517,7 +529,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hyacinthus litwinowii
 Hyacinthus orientalis L.
@@ -549,9 +563,11 @@
           <t>Précautions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme beaucoup de plantes à bulbes, celle-ci est toxique pour les animaux de compagnie qui mâchouillent. Elle peut également provoquer des irritations cutanées par contact[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme beaucoup de plantes à bulbes, celle-ci est toxique pour les animaux de compagnie qui mâchouillent. Elle peut également provoquer des irritations cutanées par contact.
 			Jeunes pousses de jacinthe.
 			Inflorescence de jacinthe.
 </t>
@@ -584,12 +600,86 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Langage des fleurs
-Dans le langage des fleurs, la jacinthe symbolise la bienveillance ou la joie du cœur[2].
-Calendrier républicain
-Dans le calendrier républicain, la Jacinthe était le nom attribué au 9e jour du mois de floréal[3], généralement chaque 28 avril du calendrier grégorien.
-En littérature
-« Ainsi que, sur les montagnes, les pâtres foulent aux pieds l’hyacinthe, et la fleur s’empourpre sur la terre. », Sappho, Fragment 105a, traduction française de Renée Vivien (1903).
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la jacinthe symbolise la bienveillance ou la joie du cœur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyacinthus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyacinthus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, la Jacinthe était le nom attribué au 9e jour du mois de floréal, généralement chaque 28 avril du calendrier grégorien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyacinthus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyacinthus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Ainsi que, sur les montagnes, les pâtres foulent aux pieds l’hyacinthe, et la fleur s’empourpre sur la terre. », Sappho, Fragment 105a, traduction française de Renée Vivien (1903).
 « ... hyacinthe, droite sur sa tige et toute seule, non pas celle des jardins, mais hyacinthe mère des lys, celle d'un blanc pur, la délicate, l'odorante, la fragile, la candide hyacinthe qui disait au cygne sortant de l'eau : « Je suis plus blanche que toi ! ». », Les Mille et Une Nuits, nuit 815, traduction Mardrus.
 </t>
         </is>
